--- a/Exported csv/table_H2_test_results.xlsx
+++ b/Exported csv/table_H2_test_results.xlsx
@@ -369,7 +369,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Group:</t>
+          <t>Group</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>309.8566632385119</v>
+        <v>309.8567</v>
       </c>
       <c r="F2" t="n">
         <v>5.193743376505954e-68</v>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>368.4093987857893</v>
+        <v>368.4094</v>
       </c>
       <c r="F3" t="n">
         <v>1.002110270121446e-80</v>
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.7142671292235668</v>
+        <v>0.7143</v>
       </c>
       <c r="F4" t="n">
         <v>0.3982749993804965</v>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1780325637439117</v>
+        <v>0.178</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
